--- a/console/Networking/podChExcel/podMixinsXlsx/components/pod_list_Item.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/pod_list_Item.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -205,9 +200,6 @@
     <t>pod_list_Item_i18nKey_15</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>pod_list_Item_i18nKey_16</t>
   </si>
   <si>
@@ -452,6 +444,10 @@
   </si>
   <si>
     <t>Please select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -486,6 +482,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -507,12 +509,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -854,15 +859,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="43.125" style="1"/>
+    <col min="1" max="3" width="43.125" style="1"/>
+    <col min="4" max="4" width="43.125" style="3"/>
+    <col min="5" max="16384" width="43.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -925,7 +932,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -936,10 +943,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,7 +965,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -1013,7 +1020,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -1024,54 +1031,54 @@
         <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
